--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="265">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -658,9 +658,6 @@
     <t xml:space="preserve">सरकार द्वारा जारी फोटो पहचान पत्र</t>
   </si>
   <si>
-    <t xml:space="preserve">सेवा फोटो आईडी कार्ड जो एक सार्वजनिक उपक्रम द्वारा जारी किया जाता है</t>
-  </si>
-  <si>
     <t xml:space="preserve">हथियारों का लाइसेंस</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t xml:space="preserve">पीडीएस कार्ड</t>
   </si>
   <si>
-    <t xml:space="preserve">राज्य सरकार, सीजीएचएस, ईसीएचएस और ईएसआईसी द्वारा जारी मेडिकल कार्ड</t>
-  </si>
-  <si>
     <t xml:space="preserve">सेना का कैंटीन कार्ड</t>
   </si>
   <si>
@@ -772,9 +766,6 @@
     <t xml:space="preserve">அரசாங்கத்தால் வழங்கப்பட்ட புகைப்பட அடையாள அட்டைகள்</t>
   </si>
   <si>
-    <t xml:space="preserve">பொதுத்துறை நிறுவனத்தால் வழங்கப்படும் சேவை புகைப்பட அடையாள அட்டைகள்</t>
-  </si>
-  <si>
     <t xml:space="preserve">ஆயுத உரிமம்</t>
   </si>
   <si>
@@ -797,9 +788,6 @@
   </si>
   <si>
     <t xml:space="preserve">ரேஷன் கார்டு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU ஆனது முகவரியுடன் கூடிய சேவை புகைப்பட அடையாள அட்டையை வழங்கியது</t>
   </si>
   <si>
     <t xml:space="preserve">முந்தைய 3 மாத மின் கட்டணம்</t>
@@ -966,10 +954,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C142" activeCellId="0" sqref="C142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>11</v>
       </c>
@@ -1253,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>11</v>
       </c>
@@ -1814,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>11</v>
       </c>
@@ -1882,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>11</v>
       </c>
@@ -2018,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>11</v>
       </c>
@@ -2103,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>9</v>
       </c>
@@ -2171,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>9</v>
       </c>
@@ -2222,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>9</v>
       </c>
@@ -2307,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>153</v>
       </c>
@@ -3247,7 +3235,7 @@
         <v>193</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>211</v>
@@ -3264,7 +3252,7 @@
         <v>193</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>212</v>
@@ -3281,7 +3269,7 @@
         <v>193</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>213</v>
@@ -3298,7 +3286,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>214</v>
@@ -3315,7 +3303,7 @@
         <v>193</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>215</v>
@@ -3332,7 +3320,7 @@
         <v>193</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>216</v>
@@ -3349,7 +3337,7 @@
         <v>193</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>217</v>
@@ -3366,7 +3354,7 @@
         <v>193</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>218</v>
@@ -3383,7 +3371,7 @@
         <v>193</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>219</v>
@@ -3400,7 +3388,7 @@
         <v>193</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>220</v>
@@ -3417,7 +3405,7 @@
         <v>193</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>221</v>
@@ -3434,7 +3422,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>222</v>
@@ -3451,7 +3439,7 @@
         <v>193</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>223</v>
@@ -3463,18 +3451,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>224</v>
+      <c r="D147" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>8</v>
@@ -3485,81 +3473,81 @@
         <v>193</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>227</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>228</v>
+        <v>6</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D150" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="B151" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>232</v>
+        <v>20</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>233</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>8</v>
@@ -3567,16 +3555,16 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>8</v>
@@ -3584,16 +3572,16 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>8</v>
@@ -3601,49 +3589,49 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D157" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -3652,12 +3640,12 @@
     </row>
     <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C158" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -3669,12 +3657,12 @@
     </row>
     <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C159" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -3686,10 +3674,10 @@
     </row>
     <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>245</v>
@@ -3703,10 +3691,10 @@
     </row>
     <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>246</v>
@@ -3720,12 +3708,12 @@
     </row>
     <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C162" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -3737,10 +3725,10 @@
     </row>
     <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>248</v>
@@ -3752,12 +3740,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>249</v>
@@ -3771,12 +3759,12 @@
     </row>
     <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C165" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -3788,12 +3776,12 @@
     </row>
     <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C166" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" s="0" t="s">
         <v>251</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -3805,10 +3793,10 @@
     </row>
     <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>252</v>
@@ -3822,10 +3810,10 @@
     </row>
     <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>253</v>
@@ -3839,12 +3827,12 @@
     </row>
     <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C169" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>254</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -3856,10 +3844,10 @@
     </row>
     <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>255</v>
@@ -3873,10 +3861,10 @@
     </row>
     <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>256</v>
@@ -3890,10 +3878,10 @@
     </row>
     <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>257</v>
@@ -3905,12 +3893,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>258</v>
@@ -3924,10 +3912,10 @@
     </row>
     <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>259</v>
@@ -3941,33 +3929,33 @@
     </row>
     <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>260</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>8</v>
@@ -3975,89 +3963,25 @@
     </row>
     <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:E91"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258A9CE-188D-4BF0-80B0-1D1C19809234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,6 @@
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -501,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,13 +552,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,41 +836,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -898,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -915,24 +905,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -949,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -966,24 +956,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1017,24 +1007,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1068,24 +1058,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1119,24 +1109,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1170,24 +1160,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1221,24 +1211,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1612,381 +1602,381 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2003,24 +1993,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2088,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2275,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2309,11 +2299,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C86" t="s">
@@ -2326,7 +2316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2360,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2377,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +2402,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E91">
+  <autoFilter ref="A1:E91" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="fra"/>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53B09E4-9A9A-476D-96AF-C7444C3E102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50814F56-778F-4EDF-8E41-BB9435E09187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
   </bookViews>
   <sheets>
     <sheet name="doc_type" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>code</t>
   </si>
@@ -308,13 +308,19 @@
   </si>
   <si>
     <t>Address Of Residence Diaspora</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>Modification Consent Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,13 +1175,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DA9DF-E7DB-4477-9DD5-17FD63429B2F}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1655,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -1785,7 +1793,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -1923,7 +1931,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2038,7 +2046,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>45634.747916666667</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2081,6 +2089,29 @@
         <v>15</v>
       </c>
       <c r="G39" s="1">
+        <v>45634.747916666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1">
         <v>45634.747916666667</v>
       </c>
     </row>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53B09E4-9A9A-476D-96AF-C7444C3E102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6711B8-4610-41A4-BD9C-0855D90ACD09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
   </bookViews>
   <sheets>
     <sheet name="doc_type" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="159">
   <si>
     <t>code</t>
   </si>
@@ -94,12 +94,6 @@
     <t>DOC001</t>
   </si>
   <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Proof of Idendity</t>
-  </si>
-  <si>
     <t>MID</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>SIG</t>
   </si>
   <si>
-    <t>Signature</t>
-  </si>
-  <si>
     <t>POLLTR</t>
   </si>
   <si>
@@ -308,13 +299,211 @@
   </si>
   <si>
     <t>Address Of Residence Diaspora</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Academic Documents</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>ANID</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>ANIN</t>
+  </si>
+  <si>
+    <t>Applicant National Identification Number</t>
+  </si>
+  <si>
+    <t>AORD</t>
+  </si>
+  <si>
+    <t>Any other relevant Documents</t>
+  </si>
+  <si>
+    <t>BC001</t>
+  </si>
+  <si>
+    <t>BCOSP</t>
+  </si>
+  <si>
+    <t>Copies of birth certificates of self parents or grandparents</t>
+  </si>
+  <si>
+    <t>Copies of birth certificates of self parents or grandparents issued as a result of 62 ConstitutionÂ Â </t>
+  </si>
+  <si>
+    <t>jagadeesh t</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>Birth Document</t>
+  </si>
+  <si>
+    <t>Birth Proof</t>
+  </si>
+  <si>
+    <t>CAOR</t>
+  </si>
+  <si>
+    <t>Care Order</t>
+  </si>
+  <si>
+    <t>CCDT</t>
+  </si>
+  <si>
+    <t>Certified copy of DNA test results</t>
+  </si>
+  <si>
+    <t>CLEIPLD</t>
+  </si>
+  <si>
+    <t>Council Letter or Embassy information</t>
+  </si>
+  <si>
+    <t>Local Council Letter or Embassy information for person living in diaspora</t>
+  </si>
+  <si>
+    <t>COREP</t>
+  </si>
+  <si>
+    <t>Court Report</t>
+  </si>
+  <si>
+    <t>Passport Document</t>
+  </si>
+  <si>
+    <t>Passport Proof</t>
+  </si>
+  <si>
+    <t>DP001</t>
+  </si>
+  <si>
+    <t>Driving Permit</t>
+  </si>
+  <si>
+    <t>IMDC</t>
+  </si>
+  <si>
+    <t>Previous Immigration records</t>
+  </si>
+  <si>
+    <t>INSI</t>
+  </si>
+  <si>
+    <t>Introducer's Signature</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>Interpol Clearance</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>Modification Consent Form</t>
+  </si>
+  <si>
+    <t>MCODD</t>
+  </si>
+  <si>
+    <t>Marriage certificate or Divorce Decree</t>
+  </si>
+  <si>
+    <t>NCOSP</t>
+  </si>
+  <si>
+    <t>Naturalisation Certificate of self parents</t>
+  </si>
+  <si>
+    <t>Naturalisation Certificate of self parents issues as a result of 67 constitutionÂ Â </t>
+  </si>
+  <si>
+    <t>NOICN</t>
+  </si>
+  <si>
+    <t>Notice of Intention to Change Name</t>
+  </si>
+  <si>
+    <t>PBREP</t>
+  </si>
+  <si>
+    <t>Probation report</t>
+  </si>
+  <si>
+    <t>PNID</t>
+  </si>
+  <si>
+    <t>Parent National ID</t>
+  </si>
+  <si>
+    <t>POIS</t>
+  </si>
+  <si>
+    <t>POOSD</t>
+  </si>
+  <si>
+    <t>Other Supporting Document</t>
+  </si>
+  <si>
+    <t>Other supporting Document issued by Govt</t>
+  </si>
+  <si>
+    <t>PPORT</t>
+  </si>
+  <si>
+    <t>Passport proof</t>
+  </si>
+  <si>
+    <t>PPOSP</t>
+  </si>
+  <si>
+    <t>Previous passports of self, parents, or grandparentsÂ </t>
+  </si>
+  <si>
+    <t>Applicant's  Signature</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Statutory Declarartion</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>Tax Document</t>
+  </si>
+  <si>
+    <t>VC001</t>
+  </si>
+  <si>
+    <t>Voter Card</t>
+  </si>
+  <si>
+    <t>WEAFA</t>
+  </si>
+  <si>
+    <t>Welfare and Family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,9 +980,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1169,13 +1359,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DA9DF-E7DB-4477-9DD5-17FD63429B2F}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,878 +1406,1629 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45615.285562199075</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45557.586567685183</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45614.530995370369</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45615.27994349537</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45565.672341701385</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45566.270634386572</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45555.388933414353</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45566.281529745371</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45615.283956400461</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45566.257464930553</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45566.283085370371</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45565.67199072917</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45553.386510613425</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45590.31591474537</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45614.526523136577</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45546.400210381944</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45615.279402789354</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45566.270168587966</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45614.524067604165</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45566.282668576387</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45615.486703888891</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45590.315118275466</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45560.544112361109</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45555.388628749999</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45566.26969734954</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C62" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1">
-        <v>45634.747916666667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45516.747916666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G66" s="2">
+        <v>45553.3860765625</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
         <v>95</v>
       </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1">
-        <v>45634.747916666667</v>
+      <c r="G67" s="2">
+        <v>45565.671392615739</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45566.283343692128</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6711B8-4610-41A4-BD9C-0855D90ACD09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D46DB-3D47-416E-92D1-8BE1A87EBD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D55A4D6-22C9-4CF1-9C69-2C07DF02284B}"/>
   </bookViews>
   <sheets>
     <sheet name="doc_type" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,10 +980,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1361,17 +1360,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DA9DF-E7DB-4477-9DD5-17FD63429B2F}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="2">
-        <v>45615.285562199075</v>
+      <c r="G2" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1451,14 +1451,14 @@
       <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="2">
-        <v>45557.586567685183</v>
+      <c r="G3" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1477,14 +1477,14 @@
       <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2">
-        <v>45614.530995370369</v>
+      <c r="G4" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1503,14 +1503,14 @@
       <c r="F5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2">
-        <v>45615.27994349537</v>
+      <c r="G5" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1532,8 +1532,11 @@
       <c r="G6" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -1552,14 +1555,14 @@
       <c r="F7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="2">
-        <v>45565.672341701385</v>
+      <c r="G7" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1578,14 +1581,14 @@
       <c r="F8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="2">
-        <v>45566.270634386572</v>
+      <c r="G8" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -1604,14 +1607,14 @@
       <c r="F9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="2">
-        <v>45555.388933414353</v>
+      <c r="G9" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +1636,11 @@
       <c r="G10" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1656,8 +1662,11 @@
       <c r="G11" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1676,14 +1685,14 @@
       <c r="F12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="2">
-        <v>45566.281529745371</v>
+      <c r="G12" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1702,14 +1711,14 @@
       <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="2">
-        <v>45615.283956400461</v>
+      <c r="G13" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1731,8 +1740,11 @@
       <c r="G14" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1751,14 +1763,14 @@
       <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="2">
-        <v>45566.257464930553</v>
+      <c r="G15" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1780,8 +1792,11 @@
       <c r="G16" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1803,8 +1818,11 @@
       <c r="G17" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1826,8 +1844,11 @@
       <c r="G18" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1849,8 +1870,11 @@
       <c r="G19" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1872,8 +1896,11 @@
       <c r="G20" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1892,14 +1919,14 @@
       <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="2">
-        <v>45566.283085370371</v>
+      <c r="G21" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1921,8 +1948,11 @@
       <c r="G22" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1944,8 +1974,11 @@
       <c r="G23" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1967,8 +2000,11 @@
       <c r="G24" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1990,8 +2026,11 @@
       <c r="G25" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2013,8 +2052,11 @@
       <c r="G26" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2036,8 +2078,11 @@
       <c r="G27" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2059,8 +2104,11 @@
       <c r="G28" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2082,8 +2130,11 @@
       <c r="G29" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2105,8 +2156,11 @@
       <c r="G30" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2128,8 +2182,11 @@
       <c r="G31" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2151,8 +2208,11 @@
       <c r="G32" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2174,8 +2234,11 @@
       <c r="G33" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -2194,14 +2257,14 @@
       <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="2">
-        <v>45565.67199072917</v>
+      <c r="G34" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2223,8 +2286,11 @@
       <c r="G35" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2246,8 +2312,11 @@
       <c r="G36" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2269,8 +2338,11 @@
       <c r="G37" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2292,8 +2364,11 @@
       <c r="G38" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2315,8 +2390,11 @@
       <c r="G39" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2338,8 +2416,11 @@
       <c r="G40" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2361,8 +2442,11 @@
       <c r="G41" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -2381,14 +2465,14 @@
       <c r="F42" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="2">
-        <v>45553.386510613425</v>
+      <c r="G42" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2407,14 +2491,14 @@
       <c r="F43" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="2">
-        <v>45590.31591474537</v>
+      <c r="G43" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -2433,14 +2517,14 @@
       <c r="F44" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="2">
-        <v>45614.526523136577</v>
+      <c r="G44" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2462,8 +2546,11 @@
       <c r="G45" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -2482,14 +2569,14 @@
       <c r="F46" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="2">
-        <v>45546.400210381944</v>
+      <c r="G46" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2508,14 +2595,14 @@
       <c r="F47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="2">
-        <v>45615.279402789354</v>
+      <c r="G47" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2537,8 +2624,11 @@
       <c r="G48" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -2557,14 +2647,14 @@
       <c r="F49" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="2">
-        <v>45566.270168587966</v>
+      <c r="G49" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -2583,14 +2673,14 @@
       <c r="F50" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="2">
-        <v>45614.524067604165</v>
+      <c r="G50" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="G51" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -2632,14 +2725,14 @@
       <c r="F52" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="2">
-        <v>45566.282668576387</v>
+      <c r="G52" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -2658,14 +2751,14 @@
       <c r="F53" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="2">
-        <v>45615.486703888891</v>
+      <c r="G53" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -2687,8 +2780,11 @@
       <c r="G54" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -2707,14 +2803,14 @@
       <c r="F55" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="2">
-        <v>45590.315118275466</v>
+      <c r="G55" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="G56" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2759,8 +2858,11 @@
       <c r="G57" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -2779,14 +2881,14 @@
       <c r="F58" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="2">
-        <v>45560.544112361109</v>
+      <c r="G58" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>146</v>
       </c>
@@ -2805,14 +2907,14 @@
       <c r="F59" t="s">
         <v>106</v>
       </c>
-      <c r="G59" s="2">
-        <v>45555.388628749999</v>
+      <c r="G59" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -2831,14 +2933,14 @@
       <c r="F60" t="s">
         <v>106</v>
       </c>
-      <c r="G60" s="2">
-        <v>45566.26969734954</v>
+      <c r="G60" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="G61" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2883,8 +2988,11 @@
       <c r="G62" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2906,8 +3014,11 @@
       <c r="G63" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="G64" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -2952,8 +3066,11 @@
       <c r="G65" s="1">
         <v>45516.747916666667</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -2972,14 +3089,14 @@
       <c r="F66" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="2">
-        <v>45553.3860765625</v>
+      <c r="G66" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -2998,14 +3115,14 @@
       <c r="F67" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="2">
-        <v>45565.671392615739</v>
+      <c r="G67" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -3024,8 +3141,8 @@
       <c r="F68" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="2">
-        <v>45566.283343692128</v>
+      <c r="G68" s="1">
+        <v>45516.747916666667</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
